--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\python\Desktop\mess-list\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\mess-list\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -89,9 +89,6 @@
     <t>exp6</t>
   </si>
   <si>
-    <t>garbaze</t>
-  </si>
-  <si>
     <t>Electric bill details</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Expd Name</t>
-  </si>
-  <si>
-    <t>Mess-Bazar</t>
   </si>
   <si>
     <t>EST</t>
@@ -574,9 +568,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,54 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -938,9 +932,12 @@
     <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
@@ -948,39 +945,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,84 +992,84 @@
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="37">
         <f>SUM(C10:C15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="41"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="41"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="41"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="42"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="31"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -1080,160 +1077,172 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="20" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="20" t="s">
+    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="48"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="B28" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="42">
+      <c r="B29" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="25"/>
+      <c r="K32" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="25"/>
-      <c r="K32" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>B10</f>
+        <v>A</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f>B11</f>
+        <v>B</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f>B12</f>
+        <v>C</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f>B13</f>
+        <v>D</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f>B14</f>
+        <v>E</v>
+      </c>
+      <c r="G33" s="10" t="str">
+        <f>B15</f>
+        <v>F</v>
       </c>
       <c r="H33" s="26"/>
       <c r="J33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="K33" s="10" t="str">
+        <f>B20</f>
+        <v>MESS_BAZAR</v>
+      </c>
+      <c r="L33" s="10" t="str">
+        <f>B21</f>
+        <v>ESTABLISHE</v>
+      </c>
+      <c r="M33" s="10" t="str">
+        <f>B22</f>
+        <v>DIDI</v>
+      </c>
+      <c r="N33" s="10" t="str">
+        <f>B23</f>
+        <v>ELECTRIC</v>
+      </c>
+      <c r="O33" s="10" t="str">
+        <f>B24</f>
+        <v>GAS</v>
+      </c>
+      <c r="P33" s="10" t="str">
+        <f>B25</f>
+        <v>GARBAZE</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="37"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="26"/>
       <c r="J34" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2611,87 +2620,87 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="E67" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="F67" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="27" t="s">
+      <c r="G67" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>62</v>
       </c>
       <c r="H67" s="27"/>
       <c r="I67" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J67" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K67" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="L67" s="23" t="s">
+      <c r="M67" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="O67" s="23" t="s">
         <v>19</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R67" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B68" s="7">
-        <f>SUM(B35:B65)</f>
+        <f t="shared" ref="B68:G68" si="0">SUM(B35:B65)</f>
         <v>0</v>
       </c>
       <c r="C68" s="23">
-        <f>SUM(C35:C65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D68" s="23">
-        <f>SUM(D35:D65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E68" s="23">
-        <f>SUM(E35:E65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F68" s="23">
-        <f>SUM(F35:F65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="27">
-        <f>SUM(G35:G65)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="38"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="30"/>
       <c r="I68" s="24">
         <f>SUM(B68:G68)</f>
         <v>0</v>
@@ -2702,23 +2711,23 @@
         <v>0</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" ref="K68:P68" si="0">SUM(L35:L65)</f>
+        <f t="shared" ref="L68:P68" si="1">SUM(L35:L65)</f>
         <v>0</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q68" s="24">
@@ -2734,33 +2743,33 @@
     <row r="70" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:18" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="H71" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -2786,7 +2795,7 @@
     </row>
     <row r="73" spans="1:18" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -2812,7 +2821,7 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B74" s="7">
         <f>B72*H72+B73*H73</f>
@@ -2838,14 +2847,14 @@
         <f>G72*I72+G73*I73</f>
         <v>0</v>
       </c>
-      <c r="H74" s="49">
+      <c r="H74" s="41">
         <f>SUM(B74:G74)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="O74" s="28"/>
+      <c r="N74" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="O74" s="42"/>
       <c r="P74" s="7" t="e">
         <f>(K68)/SUM(C10:C15)</f>
         <v>#DIV/0!</v>
@@ -2853,33 +2862,33 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H75" s="13"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
       <c r="P75" s="27"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M76" s="1"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="K32:O32"/>
     <mergeCell ref="N75:O75"/>
     <mergeCell ref="N77:P77"/>
     <mergeCell ref="N76:P76"/>
     <mergeCell ref="N74:O74"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="K32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -83,9 +83,6 @@
     <t>exp5</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>exp6</t>
   </si>
   <si>
@@ -113,18 +110,6 @@
     <t>Expd Name</t>
   </si>
   <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>Massi</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>GarBaze</t>
-  </si>
-  <si>
     <t>Daily Date</t>
   </si>
   <si>
@@ -185,31 +170,28 @@
     <t>ELECTRIC</t>
   </si>
   <si>
-    <t>Mess-Bazar*</t>
-  </si>
-  <si>
     <t>Meal Ch.*</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>mem6</t>
+  </si>
+  <si>
+    <t>name_surname</t>
+  </si>
+  <si>
+    <t>name2_surname</t>
+  </si>
+  <si>
+    <t>name3_surname</t>
+  </si>
+  <si>
+    <t>name4_surname</t>
+  </si>
+  <si>
+    <t>name5_surname</t>
+  </si>
+  <si>
+    <t>name6_surname</t>
   </si>
 </sst>
 </file>
@@ -485,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,6 +595,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,15 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -945,23 +930,23 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="9"/>
-      <c r="G1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="G1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="46"/>
+      <c r="L1" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -977,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1008,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="33"/>
     </row>
@@ -1017,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C11" s="33"/>
     </row>
@@ -1026,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -1035,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="33"/>
     </row>
@@ -1044,16 +1029,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C15" s="34"/>
     </row>
@@ -1081,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1089,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1097,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1105,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1113,27 +1098,27 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="48"/>
+      <c r="A27" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="44"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="40">
         <v>0</v>
@@ -1141,7 +1126,7 @@
     </row>
     <row r="29" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="34">
         <v>1</v>
@@ -1149,61 +1134,61 @@
     </row>
     <row r="30" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="25"/>
+      <c r="K32" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="25"/>
-      <c r="K32" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="10" t="str">
         <f>B10</f>
-        <v>A</v>
+        <v>name_surname</v>
       </c>
       <c r="C33" s="10" t="str">
         <f>B11</f>
-        <v>B</v>
+        <v>name2_surname</v>
       </c>
       <c r="D33" s="10" t="str">
         <f>B12</f>
-        <v>C</v>
+        <v>name3_surname</v>
       </c>
       <c r="E33" s="10" t="str">
         <f>B13</f>
-        <v>D</v>
+        <v>name4_surname</v>
       </c>
       <c r="F33" s="10" t="str">
         <f>B14</f>
-        <v>E</v>
+        <v>name5_surname</v>
       </c>
       <c r="G33" s="10" t="str">
         <f>B15</f>
-        <v>F</v>
+        <v>name6_surname</v>
       </c>
       <c r="H33" s="26"/>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K33" s="10" t="str">
         <f>B20</f>
@@ -1232,7 +1217,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1242,7 +1227,7 @@
       <c r="G34" s="29"/>
       <c r="H34" s="26"/>
       <c r="J34" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2620,84 +2605,96 @@
     </row>
     <row r="67" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="B67" s="27" t="str">
+        <f>B33</f>
+        <v>name_surname</v>
+      </c>
+      <c r="C67" s="42" t="str">
+        <f t="shared" ref="C67:G67" si="0">C33</f>
+        <v>name2_surname</v>
+      </c>
+      <c r="D67" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>name3_surname</v>
+      </c>
+      <c r="E67" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>name4_surname</v>
+      </c>
+      <c r="F67" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>name5_surname</v>
+      </c>
+      <c r="G67" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>name6_surname</v>
       </c>
       <c r="H67" s="27"/>
       <c r="I67" s="24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K67" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L67" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O67" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="P67" s="23" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="K67" s="23" t="str">
+        <f>K33</f>
+        <v>MESS_BAZAR</v>
+      </c>
+      <c r="L67" s="42" t="str">
+        <f t="shared" ref="L67:P67" si="1">L33</f>
+        <v>ESTABLISHE</v>
+      </c>
+      <c r="M67" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>DIDI</v>
+      </c>
+      <c r="N67" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>ELECTRIC</v>
+      </c>
+      <c r="O67" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>GAS</v>
+      </c>
+      <c r="P67" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>GARBAZE</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R67" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" ref="B68:G68" si="0">SUM(B35:B65)</f>
+        <f t="shared" ref="B68:G68" si="2">SUM(B35:B65)</f>
         <v>0</v>
       </c>
       <c r="C68" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D68" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E68" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H68" s="30"/>
@@ -2711,23 +2708,23 @@
         <v>0</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" ref="L68:P68" si="1">SUM(L35:L65)</f>
+        <f t="shared" ref="L68:P68" si="3">SUM(L35:L65)</f>
         <v>0</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q68" s="24">
@@ -2743,33 +2740,39 @@
     <row r="70" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:18" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="B71" s="10" t="str">
+        <f>B33</f>
+        <v>name_surname</v>
+      </c>
+      <c r="C71" s="10" t="str">
+        <f t="shared" ref="C71:G71" si="4">C33</f>
+        <v>name2_surname</v>
+      </c>
+      <c r="D71" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>name3_surname</v>
+      </c>
+      <c r="E71" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>name4_surname</v>
+      </c>
+      <c r="F71" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>name5_surname</v>
+      </c>
+      <c r="G71" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>name6_surname</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="73" spans="1:18" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B74" s="7">
         <f>B72*H72+B73*H73</f>
@@ -2851,10 +2854,10 @@
         <f>SUM(B74:G74)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O74" s="42"/>
+      <c r="N74" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" s="46"/>
       <c r="P74" s="7" t="e">
         <f>(K68)/SUM(C10:C15)</f>
         <v>#DIV/0!</v>
@@ -2862,24 +2865,26 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H75" s="13"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
       <c r="P75" s="27"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M76" s="1"/>
-      <c r="N76" s="44"/>
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="K32:O32"/>
@@ -2887,8 +2892,6 @@
     <mergeCell ref="N77:P77"/>
     <mergeCell ref="N76:P76"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/demo.xlsx
+++ b/data/demo.xlsx
@@ -595,6 +595,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,12 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -937,16 +937,16 @@
         <v>35</v>
       </c>
       <c r="F1" s="9"/>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="50"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1111,10 +1111,10 @@
     </row>
     <row r="26" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="44"/>
+      <c r="B27" s="46"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
@@ -1141,22 +1141,22 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="25"/>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1238,6 +1238,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",1)</f>
         <v>1</v>
       </c>
       <c r="B35" s="4">
@@ -1260,6 +1261,7 @@
       </c>
       <c r="H35" s="26"/>
       <c r="J35" s="10">
+        <f>A35</f>
         <v>1</v>
       </c>
       <c r="K35" s="4">
@@ -1283,6 +1285,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",2)</f>
         <v>2</v>
       </c>
       <c r="B36" s="4">
@@ -1305,6 +1308,7 @@
       </c>
       <c r="H36" s="26"/>
       <c r="J36" s="10">
+        <f t="shared" ref="J36:J64" si="0">A36</f>
         <v>2</v>
       </c>
       <c r="K36" s="4">
@@ -1328,6 +1332,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",3)</f>
         <v>3</v>
       </c>
       <c r="B37" s="4">
@@ -1350,6 +1355,7 @@
       </c>
       <c r="H37" s="26"/>
       <c r="J37" s="10">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K37" s="4">
@@ -1373,6 +1379,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",4)</f>
         <v>4</v>
       </c>
       <c r="B38" s="4">
@@ -1395,6 +1402,7 @@
       </c>
       <c r="H38" s="26"/>
       <c r="J38" s="10">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K38" s="4">
@@ -1418,6 +1426,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",5)</f>
         <v>5</v>
       </c>
       <c r="B39" s="4">
@@ -1440,6 +1449,7 @@
       </c>
       <c r="H39" s="26"/>
       <c r="J39" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K39" s="4">
@@ -1463,6 +1473,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",6)</f>
         <v>6</v>
       </c>
       <c r="B40" s="4">
@@ -1485,6 +1496,7 @@
       </c>
       <c r="H40" s="26"/>
       <c r="J40" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K40" s="4">
@@ -1508,6 +1520,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",7)</f>
         <v>7</v>
       </c>
       <c r="B41" s="4">
@@ -1530,6 +1543,7 @@
       </c>
       <c r="H41" s="26"/>
       <c r="J41" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K41" s="4">
@@ -1553,6 +1567,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",8)</f>
         <v>8</v>
       </c>
       <c r="B42" s="4">
@@ -1575,6 +1590,7 @@
       </c>
       <c r="H42" s="26"/>
       <c r="J42" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K42" s="4">
@@ -1598,6 +1614,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",9)</f>
         <v>9</v>
       </c>
       <c r="B43" s="4">
@@ -1620,6 +1637,7 @@
       </c>
       <c r="H43" s="26"/>
       <c r="J43" s="10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K43" s="4">
@@ -1643,6 +1661,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",10)</f>
         <v>10</v>
       </c>
       <c r="B44" s="4">
@@ -1665,6 +1684,7 @@
       </c>
       <c r="H44" s="26"/>
       <c r="J44" s="10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K44" s="4">
@@ -1688,6 +1708,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",11)</f>
         <v>11</v>
       </c>
       <c r="B45" s="4">
@@ -1710,6 +1731,7 @@
       </c>
       <c r="H45" s="26"/>
       <c r="J45" s="10">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K45" s="4">
@@ -1733,6 +1755,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",12)</f>
         <v>12</v>
       </c>
       <c r="B46" s="4">
@@ -1755,6 +1778,7 @@
       </c>
       <c r="H46" s="26"/>
       <c r="J46" s="10">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K46" s="4">
@@ -1778,6 +1802,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",13)</f>
         <v>13</v>
       </c>
       <c r="B47" s="4">
@@ -1800,6 +1825,7 @@
       </c>
       <c r="H47" s="26"/>
       <c r="J47" s="10">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="K47" s="4">
@@ -1823,6 +1849,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",14)</f>
         <v>14</v>
       </c>
       <c r="B48" s="4">
@@ -1845,6 +1872,7 @@
       </c>
       <c r="H48" s="26"/>
       <c r="J48" s="10">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="K48" s="4">
@@ -1868,6 +1896,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",15)</f>
         <v>15</v>
       </c>
       <c r="B49" s="4">
@@ -1890,6 +1919,7 @@
       </c>
       <c r="H49" s="26"/>
       <c r="J49" s="10">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="K49" s="4">
@@ -1913,6 +1943,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",16)</f>
         <v>16</v>
       </c>
       <c r="B50" s="4">
@@ -1935,6 +1966,7 @@
       </c>
       <c r="H50" s="26"/>
       <c r="J50" s="10">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K50" s="4">
@@ -1958,6 +1990,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",17)</f>
         <v>17</v>
       </c>
       <c r="B51" s="4">
@@ -1980,6 +2013,7 @@
       </c>
       <c r="H51" s="26"/>
       <c r="J51" s="10">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="K51" s="4">
@@ -2003,6 +2037,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",18)</f>
         <v>18</v>
       </c>
       <c r="B52" s="4">
@@ -2025,6 +2060,7 @@
       </c>
       <c r="H52" s="26"/>
       <c r="J52" s="10">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K52" s="4">
@@ -2048,6 +2084,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",19)</f>
         <v>19</v>
       </c>
       <c r="B53" s="4">
@@ -2070,6 +2107,7 @@
       </c>
       <c r="H53" s="26"/>
       <c r="J53" s="10">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="K53" s="4">
@@ -2093,6 +2131,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",20)</f>
         <v>20</v>
       </c>
       <c r="B54" s="4">
@@ -2115,6 +2154,7 @@
       </c>
       <c r="H54" s="26"/>
       <c r="J54" s="10">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K54" s="4">
@@ -2138,6 +2178,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",21)</f>
         <v>21</v>
       </c>
       <c r="B55" s="4">
@@ -2160,6 +2201,7 @@
       </c>
       <c r="H55" s="26"/>
       <c r="J55" s="10">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="K55" s="4">
@@ -2183,6 +2225,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",22)</f>
         <v>22</v>
       </c>
       <c r="B56" s="4">
@@ -2205,6 +2248,7 @@
       </c>
       <c r="H56" s="26"/>
       <c r="J56" s="10">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K56" s="4">
@@ -2228,6 +2272,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",23)</f>
         <v>23</v>
       </c>
       <c r="B57" s="4">
@@ -2250,6 +2295,7 @@
       </c>
       <c r="H57" s="26"/>
       <c r="J57" s="10">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="K57" s="4">
@@ -2273,6 +2319,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",24)</f>
         <v>24</v>
       </c>
       <c r="B58" s="4">
@@ -2295,6 +2342,7 @@
       </c>
       <c r="H58" s="26"/>
       <c r="J58" s="10">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K58" s="4">
@@ -2318,6 +2366,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",25)</f>
         <v>25</v>
       </c>
       <c r="B59" s="4">
@@ -2340,6 +2389,7 @@
       </c>
       <c r="H59" s="26"/>
       <c r="J59" s="10">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K59" s="4">
@@ -2363,6 +2413,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",26)</f>
         <v>26</v>
       </c>
       <c r="B60" s="4">
@@ -2385,6 +2436,7 @@
       </c>
       <c r="H60" s="26"/>
       <c r="J60" s="10">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="K60" s="4">
@@ -2408,6 +2460,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",27)</f>
         <v>27</v>
       </c>
       <c r="B61" s="4">
@@ -2430,6 +2483,7 @@
       </c>
       <c r="H61" s="26"/>
       <c r="J61" s="10">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="K61" s="4">
@@ -2453,6 +2507,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",28)</f>
         <v>28</v>
       </c>
       <c r="B62" s="4">
@@ -2475,6 +2530,7 @@
       </c>
       <c r="H62" s="26"/>
       <c r="J62" s="10">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="K62" s="4">
@@ -2498,6 +2554,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",29)</f>
         <v>29</v>
       </c>
       <c r="B63" s="4">
@@ -2520,6 +2577,7 @@
       </c>
       <c r="H63" s="26"/>
       <c r="J63" s="10">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="K63" s="4">
@@ -2543,6 +2601,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
+        <f>IF(K68&lt;&gt;0,"Y",30)</f>
         <v>30</v>
       </c>
       <c r="B64" s="4">
@@ -2565,6 +2624,7 @@
       </c>
       <c r="H64" s="26"/>
       <c r="J64" s="10">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K64" s="4">
@@ -2612,23 +2672,23 @@
         <v>name_surname</v>
       </c>
       <c r="C67" s="42" t="str">
-        <f t="shared" ref="C67:G67" si="0">C33</f>
+        <f t="shared" ref="C67:G67" si="1">C33</f>
         <v>name2_surname</v>
       </c>
       <c r="D67" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>name3_surname</v>
       </c>
       <c r="E67" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>name4_surname</v>
       </c>
       <c r="F67" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>name5_surname</v>
       </c>
       <c r="G67" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>name6_surname</v>
       </c>
       <c r="H67" s="27"/>
@@ -2643,23 +2703,23 @@
         <v>MESS_BAZAR</v>
       </c>
       <c r="L67" s="42" t="str">
-        <f t="shared" ref="L67:P67" si="1">L33</f>
+        <f t="shared" ref="L67:P67" si="2">L33</f>
         <v>ESTABLISHE</v>
       </c>
       <c r="M67" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DIDI</v>
       </c>
       <c r="N67" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ELECTRIC</v>
       </c>
       <c r="O67" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GAS</v>
       </c>
       <c r="P67" s="42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GARBAZE</v>
       </c>
       <c r="Q67" s="24" t="s">
@@ -2674,27 +2734,27 @@
         <v>29</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" ref="B68:G68" si="2">SUM(B35:B65)</f>
+        <f t="shared" ref="B68:G68" si="3">SUM(B35:B65)</f>
         <v>0</v>
       </c>
       <c r="C68" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D68" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E68" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F68" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G68" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H68" s="30"/>
@@ -2708,23 +2768,23 @@
         <v>0</v>
       </c>
       <c r="L68" s="7">
-        <f t="shared" ref="L68:P68" si="3">SUM(L35:L65)</f>
+        <f t="shared" ref="L68:P68" si="4">SUM(L35:L65)</f>
         <v>0</v>
       </c>
       <c r="M68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q68" s="24">
@@ -2732,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="24">
-        <f>I68-Q68-H74</f>
+        <f>I68-Q68</f>
         <v>0</v>
       </c>
     </row>
@@ -2747,23 +2807,23 @@
         <v>name_surname</v>
       </c>
       <c r="C71" s="10" t="str">
-        <f t="shared" ref="C71:G71" si="4">C33</f>
+        <f t="shared" ref="C71:G71" si="5">C33</f>
         <v>name2_surname</v>
       </c>
       <c r="D71" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>name3_surname</v>
       </c>
       <c r="E71" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>name4_surname</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>name5_surname</v>
       </c>
       <c r="G71" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>name6_surname</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -2854,10 +2914,10 @@
         <f>SUM(B74:G74)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="46" t="s">
+      <c r="N74" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="O74" s="46"/>
+      <c r="O74" s="48"/>
       <c r="P74" s="7" t="e">
         <f>(K68)/SUM(C10:C15)</f>
         <v>#DIV/0!</v>
@@ -2865,33 +2925,33 @@
     </row>
     <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H75" s="13"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="48"/>
       <c r="P75" s="27"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M76" s="1"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M77" s="1"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="N74:O74"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="K32:O32"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="N74:O74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
